--- a/DataProject/Physician-Information.xlsx
+++ b/DataProject/Physician-Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Semester 5\Data Warehouse\DW20201_A_A7\DataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE95E69-9346-4EBB-B88D-CA3C8DB256A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC72ED7-7F56-4B40-996D-105CA3697BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{D1BFCBA8-6462-43EE-B022-1FA0BA0785D8}"/>
+    <workbookView xWindow="8388" yWindow="696" windowWidth="11676" windowHeight="9084" xr2:uid="{D1BFCBA8-6462-43EE-B022-1FA0BA0785D8}"/>
   </bookViews>
   <sheets>
     <sheet name="physician-area" sheetId="2" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3DFBB4-6C29-48CC-86BC-446B28AD8D11}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
